--- a/backend/cpp-custom/internal/grammatics/specifications/LL_table.xlsx
+++ b/backend/cpp-custom/internal/grammatics/specifications/LL_table.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="112">
   <si>
     <t>EPSILON</t>
   </si>
@@ -27,9 +27,6 @@
     <t>$</t>
   </si>
   <si>
-    <t>main</t>
-  </si>
-  <si>
     <t>void</t>
   </si>
   <si>
@@ -48,15 +45,6 @@
     <t>;</t>
   </si>
   <si>
-    <t>a-z</t>
-  </si>
-  <si>
-    <t>_</t>
-  </si>
-  <si>
-    <t>0-9</t>
-  </si>
-  <si>
     <t>bool</t>
   </si>
   <si>
@@ -120,24 +108,6 @@
     <t>%</t>
   </si>
   <si>
-    <t>GDS MAIN GDS</t>
-  </si>
-  <si>
-    <t>GDS</t>
-  </si>
-  <si>
-    <t>GDS PD</t>
-  </si>
-  <si>
-    <t>GDS D</t>
-  </si>
-  <si>
-    <t>GDS ;</t>
-  </si>
-  <si>
-    <t>MAIN</t>
-  </si>
-  <si>
     <t>PD</t>
   </si>
   <si>
@@ -147,18 +117,9 @@
     <t>PD1</t>
   </si>
   <si>
-    <t>CO ) PSD ( I</t>
-  </si>
-  <si>
-    <t>CO ) ( main</t>
-  </si>
-  <si>
     <t>PSD</t>
   </si>
   <si>
-    <t>PSD1 I T</t>
-  </si>
-  <si>
     <t>PSD1</t>
   </si>
   <si>
@@ -189,9 +150,6 @@
     <t>FV</t>
   </si>
   <si>
-    <t>FV1 I T</t>
-  </si>
-  <si>
     <t>E =</t>
   </si>
   <si>
@@ -201,9 +159,6 @@
     <t>V</t>
   </si>
   <si>
-    <t>V1 I</t>
-  </si>
-  <si>
     <t>V1</t>
   </si>
   <si>
@@ -222,15 +177,9 @@
     <t>FC</t>
   </si>
   <si>
-    <t>E = I T const</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
-    <t>E = I</t>
-  </si>
-  <si>
     <t>T</t>
   </si>
   <si>
@@ -276,12 +225,6 @@
     <t>PS</t>
   </si>
   <si>
-    <t>PS1 I</t>
-  </si>
-  <si>
-    <t>PS1 CL</t>
-  </si>
-  <si>
     <t>PS1</t>
   </si>
   <si>
@@ -294,9 +237,6 @@
     <t>OF1</t>
   </si>
   <si>
-    <t>E = I T</t>
-  </si>
-  <si>
     <t>FE</t>
   </si>
   <si>
@@ -306,24 +246,6 @@
     <t>FA</t>
   </si>
   <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>S FAS</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>S AS</t>
-  </si>
-  <si>
-    <t>FAS</t>
-  </si>
-  <si>
-    <t>AS</t>
-  </si>
-  <si>
     <t>E1 SM +</t>
   </si>
   <si>
@@ -369,24 +291,9 @@
     <t>SE</t>
   </si>
   <si>
-    <t>CL</t>
-  </si>
-  <si>
     <t>) E (</t>
   </si>
   <si>
-    <t>CL1 DD</t>
-  </si>
-  <si>
-    <t>CL1</t>
-  </si>
-  <si>
-    <t>DD</t>
-  </si>
-  <si>
-    <t>; OI I</t>
-  </si>
-  <si>
     <t>M1 SE /</t>
   </si>
   <si>
@@ -406,6 +313,48 @@
   </si>
   <si>
     <t>E1 SM &gt;</t>
+  </si>
+  <si>
+    <t>PROG GD</t>
+  </si>
+  <si>
+    <t>GD</t>
+  </si>
+  <si>
+    <t>IDENTITY</t>
+  </si>
+  <si>
+    <t>CONSTANT</t>
+  </si>
+  <si>
+    <t>CO ) PSD ( IDENTITY</t>
+  </si>
+  <si>
+    <t>PSD1 IDENTITY T</t>
+  </si>
+  <si>
+    <t>FV1 IDENTITY T</t>
+  </si>
+  <si>
+    <t>V1 IDENTITY</t>
+  </si>
+  <si>
+    <t>E = IDENTITY T const</t>
+  </si>
+  <si>
+    <t>E = IDENTITY</t>
+  </si>
+  <si>
+    <t>; OI IDENTITY</t>
+  </si>
+  <si>
+    <t>PS1 IDENTITY</t>
+  </si>
+  <si>
+    <t>PS1 CONSTANT</t>
+  </si>
+  <si>
+    <t>E = IDENTITY T</t>
   </si>
 </sst>
 </file>
@@ -510,7 +459,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -519,9 +468,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -810,965 +756,776 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI367"/>
+  <dimension ref="A1:AG367"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="J5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q8" sqref="Q8"/>
+      <selection pane="bottomRight" activeCell="Z32" sqref="Z32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.8" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.33203125" style="1" customWidth="1"/>
-    <col min="3" max="4" width="14.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19" style="1" customWidth="1"/>
-    <col min="9" max="12" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="19" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="32" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="21.21875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="26" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10" style="1" customWidth="1"/>
+    <col min="12" max="12" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.44140625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.88671875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.21875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.109375" style="1" customWidth="1"/>
+    <col min="22" max="22" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.5546875" style="1" customWidth="1"/>
+    <col min="29" max="29" width="10.21875" style="1" customWidth="1"/>
+    <col min="30" max="30" width="11.21875" style="1" customWidth="1"/>
+    <col min="31" max="32" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="33" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.4">
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="2" t="s">
+      <c r="M1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC1" s="2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A3" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="E3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AD1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="2"/>
-    </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.4">
-      <c r="A3" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>0</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>35</v>
       </c>
       <c r="H3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="O3" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.4">
-      <c r="A4" s="4" t="s">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A9" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="F4" s="1" t="s">
+      <c r="F9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.4">
-      <c r="A5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.4">
-      <c r="A6" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.4">
-      <c r="A7" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H7" s="1" t="s">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A13" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.4">
-      <c r="A8" s="2" t="s">
+      <c r="C13" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A14" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="Q8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="R8" s="1" t="s">
+      <c r="M14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A15" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.4">
-      <c r="A9" s="2" t="s">
+      <c r="J15" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H9" s="1" t="s">
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A16" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="L9" s="1" t="s">
+      <c r="M16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P16" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.4">
-      <c r="A10" s="2" t="s">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A17" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="J17" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A18" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.4">
-      <c r="A11" s="2" t="s">
+      <c r="C18" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A19" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="O11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="R11" s="1" t="s">
+      <c r="F19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.4">
-      <c r="A12" s="2" t="s">
+      <c r="H19" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="I19" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A20" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="R20" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A21" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A22" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R22" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="J12" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.4">
-      <c r="A13" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="R13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="S13" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.4">
-      <c r="A14" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.4">
-      <c r="A15" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="O15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="R15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="S15" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.4">
-      <c r="A16" s="2" t="s">
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A23" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A24" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A25" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A26" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A27" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="L16" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A17" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="O17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="R17" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A18" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A19" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A20" s="2" t="s">
+      <c r="L27" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="H20" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I20" s="1" t="s">
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A28" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="C28" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A29" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="K20" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A21" s="2" t="s">
+      <c r="C29" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="T21" s="1" t="s">
+      <c r="D29" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="T29" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="U29" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A30" s="2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A22" s="2" t="s">
+      <c r="C30" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A31" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="T31" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="U31" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="N22" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="O22" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="T22" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="U22" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A23" s="2" t="s">
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A32" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="M23" s="1" t="s">
+      <c r="M32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V32" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="W32" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="X32" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y32" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z32" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA32" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="33" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="A33" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="N23" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="O23" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="T23" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A24" s="2" t="s">
+      <c r="D33" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="A34" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T34" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="U34" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="P24" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="S24" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A25" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C25" s="1" t="s">
+      <c r="V34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="X34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="A35" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q25" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A26" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C26" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="N35" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="36" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="A36" s="2" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A27" s="2" t="s">
+      <c r="M36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="X36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB36" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="Q27" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="R27" s="1" t="s">
+      <c r="AC36" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD36" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A28" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="N28" s="1" t="s">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="A37" s="2" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A29" s="2" t="s">
+      <c r="C37" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="N37" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="O29" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A30" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="O30" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="P30" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="V30" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="W30" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A31" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q31" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A32" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A33" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="O33" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="P33" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="R33" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="S33" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="V33" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="W33" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="X33" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y33" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z33" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA33" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB33" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC33" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD33" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE33" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF33" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A34" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A35" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A36" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="P36" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="V36" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="W36" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A37" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="O37" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="R37" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="X37" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="Y37" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="Z37" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AA37" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="AB37" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="AC37" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A38" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="P38" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A39" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="O39" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="R39" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="V39" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="W39" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="X39" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y39" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z39" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA39" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB39" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC39" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A40" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="P40" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A41" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="O41" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="R41" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="X41" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y41" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z41" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA41" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB41" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC41" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD41" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="AE41" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="AF41" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A42" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="P42" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A43" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A44" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="O44" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="R44" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="V44" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="W44" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="X44" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y44" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z44" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA44" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB44" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC44" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD44" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE44" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF44" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A45" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.4">
+    </row>
+    <row r="38" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="A38" s="2"/>
+    </row>
+    <row r="39" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="A39" s="2"/>
+    </row>
+    <row r="40" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="A40" s="2"/>
+    </row>
+    <row r="41" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="A41" s="2"/>
+    </row>
+    <row r="42" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="A42" s="2"/>
+    </row>
+    <row r="43" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="A43" s="2"/>
+    </row>
+    <row r="44" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="A44" s="2"/>
+    </row>
+    <row r="45" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="A45" s="2"/>
+    </row>
+    <row r="46" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A46" s="2"/>
     </row>
-    <row r="47" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A47" s="2"/>
     </row>
-    <row r="48" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A48" s="2"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.4">
@@ -2023,18 +1780,6 @@
     <row r="132" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A132" s="2"/>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A133" s="2"/>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A134" s="2"/>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A135" s="2"/>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A136" s="2"/>
-    </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A137" s="2"/>
     </row>
@@ -2247,9 +1992,6 @@
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A207" s="2"/>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A208" s="2"/>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A209" s="2"/>
